--- a/data/words/v1/副词词库.xlsx
+++ b/data/words/v1/副词词库.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087D7AA-F511-9C43-A09D-E9631229F88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -711,14 +715,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,151 +730,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,192 +745,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1093,251 +773,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,61 +790,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1693,49 +1087,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="V240" sqref="V240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.0909090909091" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.4545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3636363636364" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.4545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.0909090909091" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.7272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.4545454545455" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.3636363636364" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.6363636363636" style="2" customWidth="1"/>
-    <col min="15" max="15" width="27.2727272727273" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.1818181818182" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.6363636363636" style="2" customWidth="1"/>
-    <col min="18" max="18" width="27.0909090909091" style="2" customWidth="1"/>
-    <col min="19" max="19" width="24.8181818181818" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.1818181818182" style="2" customWidth="1"/>
-    <col min="21" max="21" width="25.9090909090909" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.81818181818182" style="2"/>
+    <col min="12" max="12" width="26.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="27.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1808,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1824,7 +1217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1832,7 +1225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:2">
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1856,7 +1249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:2">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1864,7 +1257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:2">
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1904,7 +1297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1936,7 +1329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1944,7 +1337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1952,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1968,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1976,7 +1369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +1385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2000,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +1401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +1409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -2024,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +1425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2040,7 +1433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -2048,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -2056,7 +1449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2064,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +1465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +1481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -2096,7 +1489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -2104,7 +1497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -2112,7 +1505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +1513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>62</v>
       </c>
@@ -2128,7 +1521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +1529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -2144,7 +1537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +1545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +1561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
@@ -2176,7 +1569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:5">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>68</v>
       </c>
@@ -2184,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:5">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +1585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +1593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2208,7 +1601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -2216,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -2224,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -2232,7 +1625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -2240,7 +1633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -2256,7 +1649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>73</v>
       </c>
@@ -2264,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
@@ -2272,7 +1665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
@@ -2280,7 +1673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -2288,7 +1681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
@@ -2296,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
@@ -2304,7 +1697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -2312,7 +1705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -2320,7 +1713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
@@ -2328,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
@@ -2336,7 +1729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -2344,7 +1737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -2352,7 +1745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -2360,7 +1753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -2368,7 +1761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
@@ -2376,7 +1769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -2384,7 +1777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:9">
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -2392,7 +1785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
@@ -2400,7 +1793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:9">
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
@@ -2408,7 +1801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:9">
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -2416,7 +1809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:9">
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -2424,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:9">
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -2432,7 +1825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:10">
+    <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -2440,7 +1833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:10">
+    <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -2448,7 +1841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:10">
+    <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
         <v>97</v>
       </c>
@@ -2456,7 +1849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:10">
+    <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
@@ -2464,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:10">
+    <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +1865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:10">
+    <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
@@ -2480,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:10">
+    <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
         <v>101</v>
       </c>
@@ -2488,7 +1881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:10">
+    <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
         <v>102</v>
       </c>
@@ -2496,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:10">
+    <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
         <v>103</v>
       </c>
@@ -2504,7 +1897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
         <v>104</v>
       </c>
@@ -2512,7 +1905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
         <v>105</v>
       </c>
@@ -2520,7 +1913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
         <v>106</v>
       </c>
@@ -2528,7 +1921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
         <v>107</v>
       </c>
@@ -2536,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
         <v>108</v>
       </c>
@@ -2544,7 +1937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:12">
+    <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
         <v>109</v>
       </c>
@@ -2552,7 +1945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:12">
+    <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
         <v>110</v>
       </c>
@@ -2560,7 +1953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
         <v>111</v>
       </c>
@@ -2568,7 +1961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
         <v>112</v>
       </c>
@@ -2576,7 +1969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:13">
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
         <v>113</v>
       </c>
@@ -2584,7 +1977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:13">
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
         <v>114</v>
       </c>
@@ -2592,7 +1985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:13">
+    <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
         <v>115</v>
       </c>
@@ -2600,7 +1993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" spans="1:13">
+    <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
         <v>116</v>
       </c>
@@ -2608,7 +2001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" spans="1:13">
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" spans="1:13">
+    <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
         <v>118</v>
       </c>
@@ -2624,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:13">
+    <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
         <v>119</v>
       </c>
@@ -2632,7 +2025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" spans="1:13">
+    <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
         <v>120</v>
       </c>
@@ -2640,7 +2033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:13">
+    <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
         <v>121</v>
       </c>
@@ -2648,7 +2041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:13">
+    <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
         <v>122</v>
       </c>
@@ -2656,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:13">
+    <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
         <v>123</v>
       </c>
@@ -2664,7 +2057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:13">
+    <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
         <v>124</v>
       </c>
@@ -2672,7 +2065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:13">
+    <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
         <v>125</v>
       </c>
@@ -2680,7 +2073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:13">
+    <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
         <v>126</v>
       </c>
@@ -2688,7 +2081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
         <v>127</v>
       </c>
@@ -2696,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
         <v>128</v>
       </c>
@@ -2704,7 +2097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:14">
+    <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
         <v>129</v>
       </c>
@@ -2712,7 +2105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" spans="1:14">
+    <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
         <v>130</v>
       </c>
@@ -2720,7 +2113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" spans="1:14">
+    <row r="117" spans="1:15">
       <c r="A117" s="2" t="s">
         <v>131</v>
       </c>
@@ -2728,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" spans="1:14">
+    <row r="118" spans="1:15">
       <c r="A118" s="2" t="s">
         <v>132</v>
       </c>
@@ -2736,7 +2129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:14">
+    <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
         <v>133</v>
       </c>
@@ -2744,7 +2137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" spans="1:14">
+    <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -2752,7 +2145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:14">
+    <row r="121" spans="1:15">
       <c r="A121" s="2" t="s">
         <v>135</v>
       </c>
@@ -2760,7 +2153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" spans="1:14">
+    <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
         <v>136</v>
       </c>
@@ -2768,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" spans="1:14">
+    <row r="123" spans="1:15">
       <c r="A123" s="2" t="s">
         <v>137</v>
       </c>
@@ -2776,7 +2169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" spans="1:15">
+    <row r="124" spans="1:15">
       <c r="A124" s="2" t="s">
         <v>138</v>
       </c>
@@ -2784,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:15">
+    <row r="125" spans="1:15">
       <c r="A125" s="2" t="s">
         <v>139</v>
       </c>
@@ -2792,7 +2185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:15">
+    <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
         <v>140</v>
       </c>
@@ -2800,7 +2193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:15">
+    <row r="127" spans="1:15">
       <c r="A127" s="2" t="s">
         <v>141</v>
       </c>
@@ -2808,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:15">
+    <row r="128" spans="1:15">
       <c r="A128" s="2" t="s">
         <v>142</v>
       </c>
@@ -2816,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:15">
+    <row r="129" spans="1:17">
       <c r="A129" s="2" t="s">
         <v>143</v>
       </c>
@@ -2824,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:15">
+    <row r="130" spans="1:17">
       <c r="A130" s="2" t="s">
         <v>144</v>
       </c>
@@ -2832,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:15">
+    <row r="131" spans="1:17">
       <c r="A131" s="2" t="s">
         <v>145</v>
       </c>
@@ -2840,7 +2233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:15">
+    <row r="132" spans="1:17">
       <c r="A132" s="2" t="s">
         <v>146</v>
       </c>
@@ -2848,7 +2241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:15">
+    <row r="133" spans="1:17">
       <c r="A133" s="2" t="s">
         <v>147</v>
       </c>
@@ -2856,7 +2249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:16">
+    <row r="134" spans="1:17">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -2864,7 +2257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:16">
+    <row r="135" spans="1:17">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -2872,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:16">
+    <row r="136" spans="1:17">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -2880,7 +2273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:16">
+    <row r="137" spans="1:17">
       <c r="A137" s="2" t="s">
         <v>151</v>
       </c>
@@ -2888,7 +2281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:16">
+    <row r="138" spans="1:17">
       <c r="A138" s="2" t="s">
         <v>152</v>
       </c>
@@ -2896,7 +2289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:16">
+    <row r="139" spans="1:17">
       <c r="A139" s="2" t="s">
         <v>153</v>
       </c>
@@ -2904,7 +2297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" spans="1:16">
+    <row r="140" spans="1:17">
       <c r="A140" s="2" t="s">
         <v>154</v>
       </c>
@@ -2912,7 +2305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" spans="1:16">
+    <row r="141" spans="1:17">
       <c r="A141" s="2" t="s">
         <v>155</v>
       </c>
@@ -2920,7 +2313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:16">
+    <row r="142" spans="1:17">
       <c r="A142" s="2" t="s">
         <v>156</v>
       </c>
@@ -2928,7 +2321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" spans="1:17">
+    <row r="143" spans="1:17">
       <c r="A143" s="2" t="s">
         <v>157</v>
       </c>
@@ -2936,7 +2329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:17">
+    <row r="144" spans="1:17">
       <c r="A144" s="2" t="s">
         <v>158</v>
       </c>
@@ -2944,7 +2337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" spans="1:17">
+    <row r="145" spans="1:18">
       <c r="A145" s="2" t="s">
         <v>159</v>
       </c>
@@ -2952,7 +2345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" spans="1:17">
+    <row r="146" spans="1:18">
       <c r="A146" s="2" t="s">
         <v>160</v>
       </c>
@@ -2960,7 +2353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:17">
+    <row r="147" spans="1:18">
       <c r="A147" s="2" t="s">
         <v>161</v>
       </c>
@@ -2968,7 +2361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:17">
+    <row r="148" spans="1:18">
       <c r="A148" s="2" t="s">
         <v>162</v>
       </c>
@@ -2976,7 +2369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:17">
+    <row r="149" spans="1:18">
       <c r="A149" s="2" t="s">
         <v>163</v>
       </c>
@@ -2984,7 +2377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:17">
+    <row r="150" spans="1:18">
       <c r="A150" s="2" t="s">
         <v>111</v>
       </c>
@@ -2992,7 +2385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:18">
+    <row r="151" spans="1:18">
       <c r="A151" s="2" t="s">
         <v>164</v>
       </c>
@@ -3000,7 +2393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:18">
+    <row r="152" spans="1:18">
       <c r="A152" s="2" t="s">
         <v>165</v>
       </c>
@@ -3008,7 +2401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:18">
+    <row r="153" spans="1:18">
       <c r="A153" s="2" t="s">
         <v>166</v>
       </c>
@@ -3016,7 +2409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:18">
+    <row r="154" spans="1:18">
       <c r="A154" s="2" t="s">
         <v>167</v>
       </c>
@@ -3024,7 +2417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:18">
+    <row r="155" spans="1:18">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -3032,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:18">
+    <row r="156" spans="1:18">
       <c r="A156" s="2" t="s">
         <v>169</v>
       </c>
@@ -3040,7 +2433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:18">
+    <row r="157" spans="1:18">
       <c r="A157" s="2" t="s">
         <v>170</v>
       </c>
@@ -3048,7 +2441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:18">
+    <row r="158" spans="1:18">
       <c r="A158" s="2" t="s">
         <v>171</v>
       </c>
@@ -3056,7 +2449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:18">
+    <row r="159" spans="1:18">
       <c r="A159" s="2" t="s">
         <v>172</v>
       </c>
@@ -3064,7 +2457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:18">
+    <row r="160" spans="1:18">
       <c r="A160" s="2" t="s">
         <v>173</v>
       </c>
@@ -3072,7 +2465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:19">
+    <row r="161" spans="1:20">
       <c r="A161" s="2" t="s">
         <v>174</v>
       </c>
@@ -3080,7 +2473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:19">
+    <row r="162" spans="1:20">
       <c r="A162" s="2" t="s">
         <v>175</v>
       </c>
@@ -3088,7 +2481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:19">
+    <row r="163" spans="1:20">
       <c r="A163" s="2" t="s">
         <v>176</v>
       </c>
@@ -3096,7 +2489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:19">
+    <row r="164" spans="1:20">
       <c r="A164" s="2" t="s">
         <v>177</v>
       </c>
@@ -3104,7 +2497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:20">
+    <row r="165" spans="1:20">
       <c r="A165" s="2" t="s">
         <v>178</v>
       </c>
@@ -3112,7 +2505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:20">
+    <row r="166" spans="1:20">
       <c r="A166" s="2" t="s">
         <v>123</v>
       </c>
@@ -3120,7 +2513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:20">
+    <row r="167" spans="1:20">
       <c r="A167" s="2" t="s">
         <v>179</v>
       </c>
@@ -3128,7 +2521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:20">
+    <row r="168" spans="1:20">
       <c r="A168" s="2" t="s">
         <v>125</v>
       </c>
@@ -3136,7 +2529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:20">
+    <row r="169" spans="1:20">
       <c r="A169" s="2" t="s">
         <v>180</v>
       </c>
@@ -3144,7 +2537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:20">
+    <row r="170" spans="1:20">
       <c r="A170" s="2" t="s">
         <v>181</v>
       </c>
@@ -3152,7 +2545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:20">
+    <row r="171" spans="1:20">
       <c r="A171" s="2" t="s">
         <v>182</v>
       </c>
@@ -3160,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:20">
+    <row r="172" spans="1:20">
       <c r="A172" s="2" t="s">
         <v>114</v>
       </c>
@@ -3168,7 +2561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:20">
+    <row r="173" spans="1:20">
       <c r="A173" s="2" t="s">
         <v>119</v>
       </c>
@@ -3176,7 +2569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:20">
+    <row r="174" spans="1:20">
       <c r="A174" s="2" t="s">
         <v>183</v>
       </c>
@@ -3184,7 +2577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:20">
+    <row r="175" spans="1:20">
       <c r="A175" s="2" t="s">
         <v>184</v>
       </c>
@@ -3192,7 +2585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:20">
+    <row r="176" spans="1:20">
       <c r="A176" s="2" t="s">
         <v>185</v>
       </c>
@@ -3200,7 +2593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:20">
+    <row r="177" spans="1:20">
       <c r="A177" s="2" t="s">
         <v>186</v>
       </c>
@@ -3208,7 +2601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:20">
+    <row r="178" spans="1:20">
       <c r="A178" s="2" t="s">
         <v>121</v>
       </c>
@@ -3216,7 +2609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:20">
+    <row r="179" spans="1:20">
       <c r="A179" s="2" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +2617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:20">
+    <row r="180" spans="1:20">
       <c r="A180" s="2" t="s">
         <v>187</v>
       </c>
@@ -3232,7 +2625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:20">
+    <row r="181" spans="1:20">
       <c r="A181" s="2" t="s">
         <v>188</v>
       </c>
@@ -3240,7 +2633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:20">
+    <row r="182" spans="1:20">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -3248,7 +2641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:20">
+    <row r="183" spans="1:20">
       <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
@@ -3256,7 +2649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:20">
+    <row r="184" spans="1:20">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -3264,7 +2657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:20">
+    <row r="185" spans="1:20">
       <c r="A185" s="2" t="s">
         <v>139</v>
       </c>
@@ -3272,7 +2665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:20">
+    <row r="186" spans="1:20">
       <c r="A186" s="2" t="s">
         <v>192</v>
       </c>
@@ -3280,7 +2673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:20">
+    <row r="187" spans="1:20">
       <c r="A187" s="2" t="s">
         <v>193</v>
       </c>
@@ -3288,7 +2681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:20">
+    <row r="188" spans="1:20">
       <c r="A188" s="2" t="s">
         <v>194</v>
       </c>
@@ -3296,7 +2689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:20">
+    <row r="189" spans="1:20">
       <c r="A189" s="2" t="s">
         <v>195</v>
       </c>
@@ -3304,7 +2697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:20">
+    <row r="190" spans="1:20">
       <c r="A190" s="2" t="s">
         <v>196</v>
       </c>
@@ -3312,7 +2705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:20">
+    <row r="191" spans="1:20">
       <c r="A191" s="2" t="s">
         <v>197</v>
       </c>
@@ -3320,7 +2713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:20">
+    <row r="192" spans="1:20">
       <c r="A192" s="2" t="s">
         <v>115</v>
       </c>
@@ -3328,7 +2721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:20">
+    <row r="193" spans="1:21">
       <c r="A193" s="2" t="s">
         <v>198</v>
       </c>
@@ -3336,7 +2729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:20">
+    <row r="194" spans="1:21">
       <c r="A194" s="2" t="s">
         <v>117</v>
       </c>
@@ -3344,7 +2737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:20">
+    <row r="195" spans="1:21">
       <c r="A195" s="2" t="s">
         <v>199</v>
       </c>
@@ -3352,7 +2745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:20">
+    <row r="196" spans="1:21">
       <c r="A196" s="2" t="s">
         <v>200</v>
       </c>
@@ -3360,7 +2753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:20">
+    <row r="197" spans="1:21">
       <c r="A197" s="2" t="s">
         <v>201</v>
       </c>
@@ -3368,7 +2761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:20">
+    <row r="198" spans="1:21">
       <c r="A198" s="2" t="s">
         <v>202</v>
       </c>
@@ -3376,7 +2769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:20">
+    <row r="199" spans="1:21">
       <c r="A199" s="2" t="s">
         <v>203</v>
       </c>
@@ -3384,7 +2777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:20">
+    <row r="200" spans="1:21">
       <c r="A200" s="2" t="s">
         <v>204</v>
       </c>
@@ -3392,7 +2785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:20">
+    <row r="201" spans="1:21">
       <c r="A201" s="2" t="s">
         <v>205</v>
       </c>
@@ -3400,7 +2793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:20">
+    <row r="202" spans="1:21">
       <c r="A202" s="2" t="s">
         <v>206</v>
       </c>
@@ -3408,7 +2801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:20">
+    <row r="203" spans="1:21">
       <c r="A203" s="2" t="s">
         <v>207</v>
       </c>
@@ -3416,7 +2809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:20">
+    <row r="204" spans="1:21">
       <c r="A204" s="2" t="s">
         <v>208</v>
       </c>
@@ -3424,7 +2817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:21">
+    <row r="205" spans="1:21">
       <c r="A205" s="2" t="s">
         <v>209</v>
       </c>
@@ -3432,7 +2825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:21">
+    <row r="206" spans="1:21">
       <c r="A206" s="2" t="s">
         <v>210</v>
       </c>
@@ -3440,7 +2833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:21">
+    <row r="207" spans="1:21">
       <c r="A207" s="2" t="s">
         <v>211</v>
       </c>
@@ -3448,7 +2841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:21">
+    <row r="208" spans="1:21">
       <c r="A208" s="2" t="s">
         <v>212</v>
       </c>
@@ -3456,7 +2849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:21">
+    <row r="209" spans="1:21">
       <c r="A209" s="2" t="s">
         <v>213</v>
       </c>
@@ -3464,7 +2857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:21">
+    <row r="210" spans="1:21">
       <c r="A210" s="2" t="s">
         <v>214</v>
       </c>
@@ -3472,7 +2865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:21">
+    <row r="211" spans="1:21">
       <c r="A211" s="2" t="s">
         <v>215</v>
       </c>
@@ -3480,7 +2873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:21">
+    <row r="212" spans="1:21">
       <c r="A212" s="2" t="s">
         <v>216</v>
       </c>
@@ -3488,7 +2881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:21">
+    <row r="213" spans="1:21">
       <c r="A213" s="2" t="s">
         <v>217</v>
       </c>
@@ -3496,7 +2889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" spans="1:21">
+    <row r="214" spans="1:21">
       <c r="A214" s="2" t="s">
         <v>136</v>
       </c>
@@ -3504,7 +2897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" spans="1:21">
+    <row r="215" spans="1:21">
       <c r="A215" s="2" t="s">
         <v>162</v>
       </c>
@@ -3512,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" spans="1:21">
+    <row r="216" spans="1:21">
       <c r="A216" s="2" t="s">
         <v>176</v>
       </c>
@@ -3520,7 +2913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" spans="1:21">
+    <row r="217" spans="1:21">
       <c r="A217" s="2" t="s">
         <v>218</v>
       </c>
@@ -3528,7 +2921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" spans="1:21">
+    <row r="218" spans="1:21">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -3536,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:21">
+    <row r="219" spans="1:21">
       <c r="A219" s="2" t="s">
         <v>132</v>
       </c>
@@ -3544,7 +2937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" spans="1:21">
+    <row r="220" spans="1:21">
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
@@ -3552,7 +2945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" spans="1:21">
+    <row r="221" spans="1:21">
       <c r="A221" s="2" t="s">
         <v>112</v>
       </c>
@@ -3560,7 +2953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" spans="1:21">
+    <row r="222" spans="1:21">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -3568,7 +2961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:21">
+    <row r="223" spans="1:21">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -3576,7 +2969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" spans="1:21">
+    <row r="224" spans="1:21">
       <c r="A224" s="2" t="s">
         <v>98</v>
       </c>
@@ -3584,7 +2977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:21">
+    <row r="225" spans="1:21">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -3592,7 +2985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" spans="1:21">
+    <row r="226" spans="1:21">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -3600,7 +2993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" spans="1:21">
+    <row r="227" spans="1:21">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -3608,7 +3001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" spans="1:21">
+    <row r="228" spans="1:21">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -3616,7 +3009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:21">
+    <row r="229" spans="1:21">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -3624,7 +3017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" spans="1:21">
+    <row r="230" spans="1:21">
       <c r="A230" s="2" t="s">
         <v>169</v>
       </c>
@@ -3632,7 +3025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" spans="1:21">
+    <row r="231" spans="1:21">
       <c r="A231" s="2" t="s">
         <v>166</v>
       </c>
@@ -3640,7 +3033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" spans="1:21">
+    <row r="232" spans="1:21">
       <c r="A232" s="2" t="s">
         <v>228</v>
       </c>
@@ -3648,7 +3041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" spans="1:21">
+    <row r="233" spans="1:21">
       <c r="A233" s="2" t="s">
         <v>229</v>
       </c>
@@ -3657,42 +3050,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/words/v1/副词词库.xlsx
+++ b/data/words/v1/副词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087D7AA-F511-9C43-A09D-E9631229F88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54126EC2-4D41-E143-8517-839F27AFE4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="副词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
